--- a/Entregaveis/1.RepositorioSemantico/Imunizacao/CargaOCL_Imunizacao/traducao_via_brvIa_edqm.xlsx
+++ b/Entregaveis/1.RepositorioSemantico/Imunizacao/CargaOCL_Imunizacao/traducao_via_brvIa_edqm.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beatrizdefarialeao/Documents/GitHub/ips-brasil-documentos/Entregaveis/1.RepositorioSemantico/Imunizacao/CargaOCL_Imunizacao/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C0EF2C39-46E3-B84A-AB3C-82AB7CB94577}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{000C6D66-D3AE-F045-BC20-EC4D05FD043C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -388,13 +388,13 @@
     <t>Parenteral</t>
   </si>
   <si>
-    <t>id_ocl_edqm</t>
-  </si>
-  <si>
     <t>Name_eng</t>
   </si>
   <si>
     <t>Name_pt</t>
+  </si>
+  <si>
+    <t>id_edqm</t>
   </si>
 </sst>
 </file>
@@ -749,8 +749,8 @@
   <dimension ref="A1:C80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D1" sqref="D1:G1048576"/>
+      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -762,13 +762,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B1" t="s">
         <v>121</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>122</v>
-      </c>
-      <c r="C1" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
